--- a/data/trans_bre/P25A_11_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P25A_11_R2-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +584,42 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,12</t>
+          <t>6,6</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,59</t>
+          <t>3,24</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,51</t>
+          <t>7,1</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-16,15</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>235,4%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>19,21%</t>
+          <t>11,25</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>146,66%</t>
+          <t>306,8%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-22,6%</t>
+          <t>47,1%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>162,4%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>246,56%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,88; 10,26</t>
+          <t>1,72; 12,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,92; 6,36</t>
+          <t>-2,92; 8,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,79; 10,64</t>
+          <t>2,34; 11,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-37,46; 8,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>25,93; 833,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-48,7; 128,82</t>
+          <t>4,7; 17,54</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>12,78; 408,44</t>
+          <t>9,29; 1558,76</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-44,69; 16,4</t>
+          <t>-28,67; 223,08</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>17,02; 425,94</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>56,19; 679,32</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,6</t>
+          <t>4,01</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,53</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,83</t>
+          <t>3,98</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,34</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>153,33%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>103,91%</t>
+          <t>5,19</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>142,98%</t>
+          <t>169,85%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-1,87%</t>
+          <t>61,44%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>126,39%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>161,95%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,08; 7,23</t>
+          <t>0,85; 9,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,72; 4,41</t>
+          <t>-1,21; 4,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,9; 6,46</t>
+          <t>1,38; 7,53</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-18,74; 19,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>23,78; 442,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,4; 267,17</t>
+          <t>1,58; 8,9</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>50,27; 331,93</t>
+          <t>10,94; 794,26</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-22,92; 35,25</t>
+          <t>-36,39; 251,31</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>18,4; 310,24</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>18,82; 491,05</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,41</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,53</t>
+          <t>3,43</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,88</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-42,44%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>113,0%</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>67,32%</t>
+          <t>10,06%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,36%</t>
+          <t>256,15%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>64,83%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0,36%</t>
         </is>
       </c>
     </row>
@@ -868,49 +1000,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,3; 0,71</t>
+          <t>-2,82; 3,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 5,08</t>
+          <t>1,19; 5,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 3,2</t>
+          <t>-0,54; 3,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-38,29; 46,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-76,93; 23,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-28,8; 490,32</t>
+          <t>-3,44; 3,51</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-29,69; 274,25</t>
+          <t>-56,38; 171,38</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-46,2; 196,54</t>
+          <t>19,25; 999,77</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-22,06; 276,14</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-51,23; 131,32</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,31</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,52</t>
+          <t>2,38</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,81</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-7,83</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>66,89%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>68,6%</t>
+          <t>6,95</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>134,09%</t>
+          <t>-3,71%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-11,27%</t>
+          <t>43,93%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>244,53%</t>
         </is>
       </c>
     </row>
@@ -968,54 +1140,222 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,45; 4,5</t>
+          <t>-3,6; 2,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,28; 4,28</t>
+          <t>-4,14; 6,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,32; 5,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-21,8; 6,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,07; 173,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,25; 164,07</t>
+          <t>3,61; 10,85</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>64,25; 253,56</t>
+          <t>-54,52; 78,36</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-28,03; 9,96</t>
+          <t>-47,49; 222,82</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>59,46; 692,29</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1,83</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2,58</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3,95</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>5,54</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>51,95%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>68,6%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>128,31%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>153,11%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-0,07; 3,63</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0,45; 4,21</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>2,46; 6,06</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>3,53; 7,74</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-2,75; 139,27</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>4,94; 150,71</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>58,41; 247,83</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>73,43; 285,95</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P25A_11_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P25A_11_R2-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,223 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>6,6</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>3,24</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>7,1</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>11,25</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>306,8%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>47,1%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>162,4%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>246,56%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>6.797109854622553</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>3.335089632813184</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>6.925081891809365</v>
+      </c>
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="n">
+        <v>11.19214936180022</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>3.278770051837407</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.4855418083210301</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>1.514147306198214</v>
+      </c>
+      <c r="L4" s="6" t="inlineStr"/>
+      <c r="M4" s="6" t="inlineStr"/>
+      <c r="N4" s="6" t="n">
+        <v>2.509478201903417</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>1,72; 12,67</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-2,92; 8,65</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>2,34; 11,07</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>4,7; 17,54</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>9,29; 1558,76</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-28,67; 223,08</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>17,02; 425,94</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>56,19; 679,32</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>2.005767506396981</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-2.939552814823424</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>2.008465698707805</v>
+      </c>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="n">
+        <v>4.765636338722475</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>0.1467880420717423</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.2970180183361553</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>0.05764447163709101</v>
+      </c>
+      <c r="L5" s="6" t="inlineStr"/>
+      <c r="M5" s="6" t="inlineStr"/>
+      <c r="N5" s="6" t="n">
+        <v>0.6129867687077081</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>13.39368499459491</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>8.790478663570507</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>10.96519716734022</v>
+      </c>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="n">
+        <v>17.20381111441988</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>16.48936413834837</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>2.197526732287669</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>4.061381568256687</v>
+      </c>
+      <c r="L6" s="6" t="inlineStr"/>
+      <c r="M6" s="6" t="inlineStr"/>
+      <c r="N6" s="6" t="n">
+        <v>6.892182323025233</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>4,01</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1,78</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>3,98</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>5,19</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>169,85%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>61,44%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>126,39%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>161,95%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>0,85; 9,13</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-1,21; 4,13</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>1,38; 7,53</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>1,58; 8,9</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>10,94; 794,26</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-36,39; 251,31</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>18,4; 310,24</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>18,82; 491,05</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>3.820977621635369</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>2.077384013162069</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>3.852603628240949</v>
+      </c>
+      <c r="F7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="n">
+        <v>5.414368046766733</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>1.75188957992881</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.7377188731661709</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>1.239381399731962</v>
+      </c>
+      <c r="L7" s="6" t="inlineStr"/>
+      <c r="M7" s="6" t="inlineStr"/>
+      <c r="N7" s="6" t="n">
+        <v>1.735795704264021</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,36</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>3,43</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,36</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>0,02</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>10,06%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>256,15%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>64,83%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>0,36%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>0.8644042600593199</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.8977477435553854</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>1.269678278916504</v>
+      </c>
+      <c r="F8" s="5" t="inlineStr"/>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="n">
+        <v>1.741602689238928</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>0.09446044623411544</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.3562047770306274</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>0.1417041034407952</v>
+      </c>
+      <c r="L8" s="6" t="inlineStr"/>
+      <c r="M8" s="6" t="inlineStr"/>
+      <c r="N8" s="6" t="n">
+        <v>0.2616844874078894</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-2,82; 3,49</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>1,19; 5,96</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-0,54; 3,4</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-3,44; 3,51</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-56,38; 171,38</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>19,25; 999,77</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-22,06; 276,14</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>-51,23; 131,32</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>7.694856577667483</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>4.544669100244223</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>7.069973416405103</v>
+      </c>
+      <c r="F9" s="5" t="inlineStr"/>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="n">
+        <v>8.933278676649319</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>6.80207862069337</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>2.795836141199927</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>2.999992104196587</v>
+      </c>
+      <c r="L9" s="6" t="inlineStr"/>
+      <c r="M9" s="6" t="inlineStr"/>
+      <c r="N9" s="6" t="n">
+        <v>5.073783964185719</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,291 +883,234 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-0,17</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>2,38</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>6,95</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-3,71%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>43,93%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>244,53%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-0.3564021051820681</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>3.119786233926841</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>1.23206396961713</v>
+      </c>
+      <c r="F10" s="5" t="inlineStr"/>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="n">
+        <v>-0.0861011968134956</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.08393491663118385</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>1.913221697729109</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.5687739257219542</v>
+      </c>
+      <c r="L10" s="6" t="inlineStr"/>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="n">
+        <v>-0.01836744893360673</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-3,6; 2,39</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-4,14; 6,42</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>3,61; 10,85</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-54,52; 78,36</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-47,49; 222,82</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>59,46; 692,29</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-5.230575535475912</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.5296024513373081</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.7208272087925618</v>
+      </c>
+      <c r="F11" s="5" t="inlineStr"/>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="n">
+        <v>-3.517165027422838</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.7002003037658842</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.1919420655106818</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.2718206167493816</v>
+      </c>
+      <c r="L11" s="6" t="inlineStr"/>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="n">
+        <v>-0.5180155340988409</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>2.760890750243133</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>5.581265956570646</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>3.279526781044651</v>
+      </c>
+      <c r="F12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="n">
+        <v>3.295940705236083</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>1.24146158558283</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>8.874317658435173</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>2.612724581830487</v>
+      </c>
+      <c r="L12" s="6" t="inlineStr"/>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="n">
+        <v>1.308259144166426</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>1,83</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>2,58</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>3,95</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>5,54</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>51,95%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>68,6%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>128,31%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>153,11%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-0,07; 3,63</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>0,45; 4,21</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>2,46; 6,06</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>3,53; 7,74</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-2,75; 139,27</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>4,94; 150,71</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>58,41; 247,83</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>73,43; 285,95</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>2.887365234909621</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>2.804776487850358</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>3.834342875034273</v>
+      </c>
+      <c r="F13" s="5" t="inlineStr"/>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="n">
+        <v>5.022542353297223</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.9897645216630329</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.8615989583411616</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>1.22795744389083</v>
+      </c>
+      <c r="L13" s="6" t="inlineStr"/>
+      <c r="M13" s="6" t="inlineStr"/>
+      <c r="N13" s="6" t="n">
+        <v>1.280438987370212</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>0.7396043561661185</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.610547566451312</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>2.360457182945695</v>
+      </c>
+      <c r="F14" s="5" t="inlineStr"/>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="n">
+        <v>2.700322008889995</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.1084960421020726</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.08918725866296023</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.5355415989229579</v>
+      </c>
+      <c r="L14" s="6" t="inlineStr"/>
+      <c r="M14" s="6" t="inlineStr"/>
+      <c r="N14" s="6" t="n">
+        <v>0.5231106224333647</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>5.119790228030603</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>4.695752401282646</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>5.900838651014007</v>
+      </c>
+      <c r="F15" s="5" t="inlineStr"/>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="n">
+        <v>7.566545305465705</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>2.697415079492037</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>2.039450297062844</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>2.384957021260842</v>
+      </c>
+      <c r="L15" s="6" t="inlineStr"/>
+      <c r="M15" s="6" t="inlineStr"/>
+      <c r="N15" s="6" t="n">
+        <v>2.622300882212516</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
